--- a/client/src/ExcelForm/BIEUMAUGV_HC.xlsx
+++ b/client/src/ExcelForm/BIEUMAUGV_HC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\react js\Website-PhanCongCoThi\client\src\ExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEE4221-C615-4680-BC1B-D980F8FB87E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75FC844-6FCF-4D3F-889C-126FC3B2BDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,13 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -148,15 +141,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,36 +164,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -230,29 +211,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -260,7 +334,158 @@
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -271,6 +496,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A5A8248F-2058-468A-9A1A-F3B78AA9EA37}" name="Table2" displayName="Table2" ref="A2:C15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A2:C15" xr:uid="{A5A8248F-2058-468A-9A1A-F3B78AA9EA37}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
+    <sortCondition ref="B2:B15"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E76CA11F-B399-4EA1-976B-7D215BD2AA91}" name="Họ Tên" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{625A8BD7-8BD9-4FC1-8B55-C5926FC59C48}" name="MÃ Viên Chức" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{0E5305EB-322C-4848-B6C5-A9ED9A7AA50D}" name="EMAIL GV" dataDxfId="1" dataCellStyle="Siêu kết nối"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,187 +789,190 @@
     <col min="3" max="3" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="C15" r:id="rId13" xr:uid="{23AC86F1-B6FE-4B58-B440-4ED596E4709F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId14"/>
+  </tableParts>
 </worksheet>
 </file>